--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="127">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -363,6 +369,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -442,7 +451,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -454,6 +463,7 @@
     <col min="4" max="4" width="45.9921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -475,185 +485,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -675,1805 +715,2078 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>116</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -989,7 +989,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>25</v>
@@ -1104,7 +1104,7 @@
         <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>25</v>
@@ -1150,7 +1150,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>25</v>
@@ -1288,7 +1288,7 @@
         <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>25</v>
@@ -1334,7 +1334,7 @@
         <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>25</v>
@@ -1357,7 +1357,7 @@
         <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>25</v>
@@ -1495,7 +1495,7 @@
         <v>51</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>25</v>
@@ -1610,7 +1610,7 @@
         <v>61</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>25</v>
@@ -1656,7 +1656,7 @@
         <v>65</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>25</v>
@@ -1794,7 +1794,7 @@
         <v>77</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>25</v>
@@ -1840,7 +1840,7 @@
         <v>81</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>25</v>
@@ -1863,7 +1863,7 @@
         <v>83</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>25</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="128">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,49 +32,52 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Estratto dell'atto di unione civile</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Lettera raccomandata</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>121-undecies</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Estratto dell'atto di unione civile</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Lettera raccomandata</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>121-undecies</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -716,2077 +719,2077 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -374,7 +374,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -466,7 +466,7 @@
     <col min="4" max="4" width="45.9921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -215,6 +215,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalita</t>
   </si>
   <si>
@@ -347,22 +353,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -454,7 +460,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1167,7 +1173,7 @@
         <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>47</v>
@@ -1176,7 +1182,7 @@
         <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>26</v>
@@ -1259,7 +1265,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
@@ -1291,7 +1297,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1314,7 +1320,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1337,7 +1343,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1374,7 +1380,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>47</v>
@@ -1383,7 +1389,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>26</v>
@@ -1437,22 +1443,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C43" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1460,22 +1466,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1483,22 +1489,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1506,22 +1512,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -1529,19 +1535,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1552,19 +1558,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1575,19 +1581,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1598,22 +1604,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -1621,22 +1627,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>26</v>
@@ -1644,22 +1650,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>26</v>
@@ -1667,22 +1673,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>26</v>
@@ -1690,22 +1696,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>26</v>
@@ -1713,19 +1719,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1736,19 +1742,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1759,19 +1765,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1782,22 +1788,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>26</v>
@@ -1805,19 +1811,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1828,19 +1834,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>13</v>
@@ -1851,22 +1857,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>26</v>
@@ -1874,22 +1880,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>26</v>
@@ -1897,22 +1903,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>26</v>
@@ -1920,19 +1926,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1946,16 +1952,16 @@
         <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1969,16 +1975,16 @@
         <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1989,19 +1995,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2012,19 +2018,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2035,19 +2041,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2058,19 +2064,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2081,19 +2087,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2104,19 +2110,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2127,19 +2133,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2150,19 +2156,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2173,22 +2179,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>26</v>
@@ -2196,19 +2202,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
@@ -2219,576 +2225,645 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E103" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="2" t="s">
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -380,7 +380,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -472,7 +475,7 @@
     <col min="4" max="4" width="45.9921875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="35.53515625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2780,7 +2783,7 @@
         <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2800,10 +2803,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2812,7 +2815,7 @@
         <v>24</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2823,10 +2826,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2835,7 +2838,7 @@
         <v>35</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2846,10 +2849,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
@@ -2858,7 +2861,7 @@
         <v>35</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="130">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,9 +381,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2783,7 +2780,7 @@
         <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2803,10 +2800,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2815,7 +2812,7 @@
         <v>24</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2826,10 +2823,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2838,7 +2835,7 @@
         <v>35</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2849,10 +2846,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
@@ -2861,7 +2858,7 @@
         <v>35</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2780,7 +2783,7 @@
         <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
@@ -2800,10 +2803,10 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -2812,7 +2815,7 @@
         <v>24</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2823,10 +2826,10 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
@@ -2835,7 +2838,7 @@
         <v>35</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2846,10 +2849,10 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
@@ -2858,7 +2861,7 @@
         <v>35</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -291,6 +291,30 @@
   </si>
   <si>
     <t>flagFirmatario</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Unito civilmente 2</t>
@@ -463,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1469,22 +1493,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C44" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1492,22 +1516,22 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>49</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1515,22 +1539,22 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -1538,22 +1562,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -1561,22 +1585,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1584,19 +1608,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1607,22 +1631,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -1630,22 +1654,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>26</v>
@@ -1653,19 +1677,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1676,22 +1700,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>26</v>
@@ -1699,22 +1723,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>26</v>
@@ -1722,22 +1746,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>26</v>
@@ -1745,19 +1769,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1768,22 +1792,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>26</v>
@@ -1791,22 +1815,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>26</v>
@@ -1814,19 +1838,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1837,22 +1861,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>26</v>
@@ -1860,19 +1884,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1883,22 +1907,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>26</v>
@@ -1906,22 +1930,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>26</v>
@@ -1929,22 +1953,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>26</v>
@@ -1952,19 +1976,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1975,22 +1999,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>26</v>
@@ -1998,22 +2022,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>26</v>
@@ -2021,19 +2045,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2068,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2091,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2090,19 +2114,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2113,22 +2137,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>26</v>
@@ -2136,19 +2160,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2159,22 +2183,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>26</v>
@@ -2182,19 +2206,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2205,22 +2229,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>26</v>
@@ -2228,22 +2252,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>26</v>
@@ -2251,19 +2275,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2274,599 +2298,783 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>46</v>
+        <v>113</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>129</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>130</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="G105" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -1016,7 +1016,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>47</v>
@@ -1025,7 +1025,7 @@
         <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>26</v>
@@ -1637,7 +1637,7 @@
         <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>102</v>
@@ -1646,7 +1646,7 @@
         <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -167,6 +167,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -221,13 +227,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1016,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>47</v>
@@ -1108,7 +1114,7 @@
         <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>47</v>
@@ -1140,7 +1146,7 @@
         <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>26</v>
@@ -1163,7 +1169,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>26</v>
@@ -1186,7 +1192,7 @@
         <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>26</v>
@@ -1223,7 +1229,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>47</v>
@@ -1232,7 +1238,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>26</v>
@@ -1315,7 +1321,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>
@@ -1347,7 +1353,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1370,7 +1376,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1393,7 +1399,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1430,7 +1436,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>47</v>
@@ -1439,7 +1445,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
@@ -1499,7 +1505,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
@@ -1531,7 +1537,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1554,7 +1560,7 @@
         <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -1577,7 +1583,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -1585,19 +1591,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>13</v>
@@ -1608,22 +1614,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1631,19 +1637,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1660,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1683,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1700,19 +1706,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1729,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1746,22 +1752,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>26</v>
@@ -1769,19 +1775,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>13</v>
@@ -1815,22 +1821,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>26</v>
@@ -1838,22 +1844,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>26</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>26</v>
@@ -1884,19 +1890,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1907,19 +1913,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1953,22 +1959,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>26</v>
@@ -1976,19 +1982,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2005,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>26</v>
@@ -2045,22 +2051,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2068,22 +2074,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>26</v>
@@ -2091,19 +2097,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2137,22 +2143,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>26</v>
@@ -2160,19 +2166,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2189,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>13</v>
@@ -2209,16 +2215,16 @@
         <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2238,19 @@
         <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>26</v>
@@ -2252,19 +2258,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2281,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2327,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2350,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2373,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2396,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2413,22 +2419,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>26</v>
@@ -2436,22 +2442,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>26</v>
@@ -2459,22 +2465,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>26</v>
@@ -2482,599 +2488,668 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>48</v>
+        <v>126</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>131</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B109" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F109" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B112" s="2" t="s">
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="2" t="s">
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E114" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="2" t="s">
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1298,7 +1304,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
@@ -1307,7 +1313,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -1321,7 +1327,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>
@@ -1353,7 +1359,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1376,7 +1382,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1399,7 +1405,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1422,7 +1428,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>26</v>
@@ -1459,7 +1465,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>47</v>
@@ -1468,7 +1474,7 @@
         <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -1528,7 +1534,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>47</v>
@@ -1560,7 +1566,7 @@
         <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>26</v>
@@ -1583,7 +1589,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -1606,7 +1612,7 @@
         <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1614,19 +1620,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>13</v>
@@ -1637,22 +1643,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -1660,19 +1666,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1683,19 +1689,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1706,19 +1712,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1729,19 +1735,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1798,22 +1804,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>26</v>
@@ -1821,22 +1827,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>26</v>
@@ -1844,22 +1850,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>26</v>
@@ -1867,19 +1873,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>13</v>
@@ -1890,22 +1896,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>26</v>
@@ -1913,19 +1919,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1959,22 +1965,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>26</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
@@ -2028,19 +2034,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>13</v>
@@ -2074,22 +2080,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>26</v>
@@ -2097,22 +2103,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>26</v>
@@ -2120,22 +2126,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>26</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2189,22 +2195,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>26</v>
@@ -2212,19 +2218,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2235,19 +2241,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
@@ -2261,16 +2267,16 @@
         <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2284,19 +2290,19 @@
         <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>26</v>
@@ -2304,19 +2310,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2373,19 +2379,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2396,19 +2402,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2419,19 +2425,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2442,19 +2448,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2465,22 +2471,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>26</v>
@@ -2488,22 +2494,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>26</v>
@@ -2511,22 +2517,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
@@ -2534,622 +2540,691 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>132</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>133</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G112" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G114" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B115" s="2" t="s">
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -499,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1336,7 +1342,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1359,7 +1365,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1382,7 +1388,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1405,7 +1411,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1428,7 +1434,7 @@
         <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>26</v>
@@ -1451,7 +1457,7 @@
         <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
@@ -1488,7 +1494,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -1497,7 +1503,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1557,7 +1563,7 @@
         <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>47</v>
@@ -1589,7 +1595,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -1612,7 +1618,7 @@
         <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1635,7 +1641,7 @@
         <v>104</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>13</v>
@@ -1666,22 +1672,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>26</v>
@@ -1689,19 +1695,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1764,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1787,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1810,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1827,22 +1833,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>26</v>
@@ -1850,22 +1856,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>26</v>
@@ -1873,22 +1879,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>26</v>
@@ -1896,19 +1902,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>13</v>
@@ -1919,22 +1925,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>26</v>
@@ -1942,19 +1948,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1965,22 +1971,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>26</v>
@@ -1988,22 +1994,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>26</v>
@@ -2011,19 +2017,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
@@ -2034,19 +2040,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2063,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>13</v>
@@ -2080,19 +2086,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2109,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
@@ -2126,22 +2132,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>26</v>
@@ -2149,22 +2155,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>26</v>
@@ -2172,22 +2178,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>26</v>
@@ -2195,19 +2201,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2224,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2241,22 +2247,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>26</v>
@@ -2264,19 +2270,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2293,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>13</v>
@@ -2313,16 +2319,16 @@
         <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2336,19 +2342,19 @@
         <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>26</v>
@@ -2356,19 +2362,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2385,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2408,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2431,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2454,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2477,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2500,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2517,22 +2523,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>26</v>
@@ -2540,22 +2546,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>26</v>
@@ -2563,22 +2569,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>26</v>
@@ -2586,645 +2592,714 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>134</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>133</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B118" s="2" t="s">
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E118" s="2" t="s">
+      <c r="E120" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -505,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2621,7 +2627,7 @@
         <v>131</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>111</v>
@@ -2630,7 +2636,7 @@
         <v>132</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>26</v>
@@ -2638,605 +2644,605 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>136</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>139</v>
@@ -3245,21 +3251,21 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>141</v>
@@ -3268,7 +3274,7 @@
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>142</v>
@@ -3282,13 +3288,13 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>35</v>
@@ -3300,6 +3306,29 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -2949,7 +2949,7 @@
         <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>136</v>
@@ -2972,7 +2972,7 @@
         <v>73</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>136</v>
@@ -2981,7 +2981,7 @@
         <v>74</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>138</v>

--- a/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
+++ b/docs/Mapping_casi_uso/unioni_civili/Sciogl_UnCiv_002.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="151">
   <si>
     <t>Sezione</t>
   </si>
@@ -177,6 +177,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -511,7 +523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1086,7 +1098,7 @@
         <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>47</v>
@@ -1109,7 +1121,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>47</v>
@@ -1118,7 +1130,7 @@
         <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>26</v>
@@ -1155,7 +1167,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>47</v>
@@ -1178,7 +1190,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>47</v>
@@ -1187,7 +1199,7 @@
         <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>26</v>
@@ -1256,7 +1268,7 @@
         <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>26</v>
@@ -1270,7 +1282,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>47</v>
@@ -1279,7 +1291,7 @@
         <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>26</v>
@@ -1293,7 +1305,7 @@
         <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -1302,7 +1314,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
@@ -1316,7 +1328,7 @@
         <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>47</v>
@@ -1325,7 +1337,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -1339,7 +1351,7 @@
         <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>
@@ -1348,7 +1360,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1371,7 +1383,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1509,7 +1521,7 @@
         <v>92</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1523,7 +1535,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>47</v>
@@ -1532,7 +1544,7 @@
         <v>94</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1546,7 +1558,7 @@
         <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>47</v>
@@ -1555,7 +1567,7 @@
         <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>26</v>
@@ -1592,7 +1604,7 @@
         <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>47</v>
@@ -1615,7 +1627,7 @@
         <v>101</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>47</v>
@@ -1624,7 +1636,7 @@
         <v>102</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1678,22 +1690,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C51" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>26</v>
@@ -1701,22 +1713,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>26</v>
@@ -1724,22 +1736,22 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>26</v>
@@ -1747,19 +1759,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1770,19 +1782,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1793,19 +1805,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1816,19 +1828,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1839,22 +1851,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>26</v>
@@ -1862,22 +1874,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>26</v>
@@ -1885,19 +1897,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1908,22 +1920,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>26</v>
@@ -1931,22 +1943,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>26</v>
@@ -1954,22 +1966,22 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>26</v>
@@ -1977,19 +1989,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2000,19 +2012,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>13</v>
@@ -2023,19 +2035,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
@@ -2046,19 +2058,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2069,22 +2081,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2092,22 +2104,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>26</v>
@@ -2115,19 +2127,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
@@ -2138,19 +2150,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2161,19 +2173,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>13</v>
@@ -2184,22 +2196,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>26</v>
@@ -2207,22 +2219,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>26</v>
@@ -2230,19 +2242,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2253,22 +2265,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>26</v>
@@ -2276,22 +2288,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>26</v>
@@ -2299,22 +2311,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>26</v>
@@ -2322,19 +2334,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2345,22 +2357,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>26</v>
@@ -2368,19 +2380,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2391,22 +2403,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>26</v>
@@ -2414,19 +2426,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2437,22 +2449,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>26</v>
@@ -2460,19 +2472,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2483,19 +2495,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2506,19 +2518,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2529,19 +2541,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2552,19 +2564,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2575,22 +2587,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>26</v>
@@ -2598,22 +2610,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>26</v>
@@ -2621,22 +2633,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>26</v>
@@ -2644,19 +2656,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>134</v>
+        <v>28</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2667,668 +2679,806 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>48</v>
+        <v>132</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C96" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E120" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="E122" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="2" t="s">
+      <c r="E127" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
         <v>26</v>
       </c>
     </row>
